--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -70,7 +70,7 @@
     <t>awesome</t>
   </si>
   <si>
-    <t>fantastic</t>
+    <t>beautiful</t>
   </si>
   <si>
     <t>love</t>
@@ -79,13 +79,28 @@
     <t>pleased</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>son</t>
   </si>
   <si>
     <t>perfect</t>
@@ -94,229 +109,208 @@
     <t>cakes</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>cooks</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>rice</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>simple</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>always</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>highly</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>far</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>every</t>
+    <t>last</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
     <t>make</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>quality</t>
+    <t>really</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>job</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>use</t>
@@ -680,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,7 +685,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -749,13 +743,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -767,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9655172413793104</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -791,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -799,13 +793,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.310077519379845</v>
+        <v>0.575</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -817,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9354838709677419</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -841,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -849,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2323232323232323</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -867,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -899,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1351351351351351</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -917,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8984375</v>
+        <v>0.8828125</v>
       </c>
       <c r="L6">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M6">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -941,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -949,13 +943,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8913043478260869</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -967,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -975,13 +969,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8846153846153846</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -993,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,13 +995,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8359133126934984</v>
+        <v>0.8343653250773994</v>
       </c>
       <c r="L9">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M9">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1019,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,13 +1021,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7922077922077922</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L10">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M10">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1045,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,13 +1047,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7333333333333333</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7045454545454546</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1105,13 +1099,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6926406926406926</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L13">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1123,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1131,13 +1125,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6644067796610169</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L14">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1149,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1157,13 +1151,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.65625</v>
+        <v>0.6514285714285715</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1175,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1183,13 +1177,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6458333333333334</v>
+        <v>0.6500802568218299</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>810</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>810</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1201,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1209,13 +1203,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6380417335473515</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L17">
-        <v>795</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>795</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1227,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>451</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1235,13 +1229,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6338028169014085</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1253,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1261,13 +1255,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6326530612244898</v>
+        <v>0.6406779661016949</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1279,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1287,13 +1281,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.631578947368421</v>
+        <v>0.625</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1305,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1313,13 +1307,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6301369863013698</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="L21">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M21">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1339,13 +1333,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.6285714285714286</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1357,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1365,13 +1359,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L23">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1383,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1391,13 +1385,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.6176470588235294</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1409,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1417,13 +1411,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.6153846153846154</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1435,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1443,13 +1437,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.6057142857142858</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L26">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1461,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1469,13 +1463,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5857142857142857</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1487,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1495,13 +1489,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.5769230769230769</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L28">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1513,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1521,13 +1515,13 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.5692307692307692</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1539,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1547,13 +1541,13 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.5555555555555556</v>
+        <v>0.55</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1565,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1573,13 +1567,13 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.5470085470085471</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L31">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M31">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1591,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1599,13 +1593,13 @@
         <v>42</v>
       </c>
       <c r="K32">
-        <v>0.5294117647058824</v>
+        <v>0.5209580838323353</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1617,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1625,13 +1619,13 @@
         <v>43</v>
       </c>
       <c r="K33">
-        <v>0.5131578947368421</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1643,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1651,13 +1645,13 @@
         <v>44</v>
       </c>
       <c r="K34">
-        <v>0.5060240963855421</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1669,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1677,13 +1671,13 @@
         <v>45</v>
       </c>
       <c r="K35">
-        <v>0.4918032786885246</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1695,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1703,13 +1697,13 @@
         <v>46</v>
       </c>
       <c r="K36">
-        <v>0.4850299401197605</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L36">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1721,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1729,13 +1723,13 @@
         <v>47</v>
       </c>
       <c r="K37">
-        <v>0.48</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L37">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="M37">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1747,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1755,13 +1749,13 @@
         <v>48</v>
       </c>
       <c r="K38">
-        <v>0.4586466165413534</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L38">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1773,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1781,13 +1775,13 @@
         <v>49</v>
       </c>
       <c r="K39">
-        <v>0.4307692307692308</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L39">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1799,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1807,13 +1801,13 @@
         <v>50</v>
       </c>
       <c r="K40">
-        <v>0.427710843373494</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L40">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1825,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>95</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1833,13 +1827,13 @@
         <v>51</v>
       </c>
       <c r="K41">
-        <v>0.4193548387096774</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="M41">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1851,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>36</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1859,13 +1853,13 @@
         <v>52</v>
       </c>
       <c r="K42">
-        <v>0.4078947368421053</v>
+        <v>0.41</v>
       </c>
       <c r="L42">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M42">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1877,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1885,13 +1879,13 @@
         <v>53</v>
       </c>
       <c r="K43">
-        <v>0.4</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1903,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1937,13 +1931,13 @@
         <v>55</v>
       </c>
       <c r="K45">
-        <v>0.3950617283950617</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="L45">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="M45">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1955,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1963,13 +1957,13 @@
         <v>56</v>
       </c>
       <c r="K46">
-        <v>0.3823529411764706</v>
+        <v>0.3676470588235294</v>
       </c>
       <c r="L46">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1981,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1989,13 +1983,13 @@
         <v>57</v>
       </c>
       <c r="K47">
-        <v>0.3783783783783784</v>
+        <v>0.3455882352941176</v>
       </c>
       <c r="L47">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="M47">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2007,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>69</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2015,13 +2009,13 @@
         <v>58</v>
       </c>
       <c r="K48">
-        <v>0.3684210526315789</v>
+        <v>0.3424124513618677</v>
       </c>
       <c r="L48">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="M48">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2033,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>84</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2041,13 +2035,13 @@
         <v>59</v>
       </c>
       <c r="K49">
-        <v>0.3553921568627451</v>
+        <v>0.3410958904109589</v>
       </c>
       <c r="L49">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="M49">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2059,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>263</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2067,13 +2061,13 @@
         <v>60</v>
       </c>
       <c r="K50">
-        <v>0.3501945525291829</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L50">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="M50">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2085,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>167</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2093,13 +2087,13 @@
         <v>61</v>
       </c>
       <c r="K51">
-        <v>0.3424657534246575</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L51">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="M51">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2111,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>480</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2119,13 +2113,13 @@
         <v>62</v>
       </c>
       <c r="K52">
-        <v>0.3055555555555556</v>
+        <v>0.3240740740740741</v>
       </c>
       <c r="L52">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M52">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2137,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2145,13 +2139,13 @@
         <v>63</v>
       </c>
       <c r="K53">
-        <v>0.2822966507177033</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="L53">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2163,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>150</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2171,13 +2165,13 @@
         <v>64</v>
       </c>
       <c r="K54">
-        <v>0.2805755395683453</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L54">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M54">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2189,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2197,13 +2191,13 @@
         <v>65</v>
       </c>
       <c r="K55">
-        <v>0.2738095238095238</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L55">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2215,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>61</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2223,13 +2217,13 @@
         <v>66</v>
       </c>
       <c r="K56">
-        <v>0.2666666666666667</v>
+        <v>0.2733812949640288</v>
       </c>
       <c r="L56">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M56">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2241,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2249,13 +2243,13 @@
         <v>67</v>
       </c>
       <c r="K57">
-        <v>0.2574257425742574</v>
+        <v>0.2649006622516556</v>
       </c>
       <c r="L57">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M57">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2267,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>75</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2275,13 +2269,13 @@
         <v>68</v>
       </c>
       <c r="K58">
-        <v>0.2572658772874058</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="L58">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2293,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>690</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2301,13 +2295,13 @@
         <v>69</v>
       </c>
       <c r="K59">
-        <v>0.2450331125827815</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L59">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M59">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2319,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2327,13 +2321,13 @@
         <v>70</v>
       </c>
       <c r="K60">
-        <v>0.2351097178683386</v>
+        <v>0.2551130247578041</v>
       </c>
       <c r="L60">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="M60">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2345,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>244</v>
+        <v>692</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2353,13 +2347,13 @@
         <v>71</v>
       </c>
       <c r="K61">
-        <v>0.2295081967213115</v>
+        <v>0.213166144200627</v>
       </c>
       <c r="L61">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="M61">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2371,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>94</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2379,13 +2373,13 @@
         <v>72</v>
       </c>
       <c r="K62">
-        <v>0.2201834862385321</v>
+        <v>0.2052980132450331</v>
       </c>
       <c r="L62">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="M62">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2397,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>85</v>
+        <v>600</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2405,13 +2399,13 @@
         <v>73</v>
       </c>
       <c r="K63">
-        <v>0.2162162162162162</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L63">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M63">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2423,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2431,25 +2425,25 @@
         <v>74</v>
       </c>
       <c r="K64">
-        <v>0.2142857142857143</v>
+        <v>0.1946902654867257</v>
       </c>
       <c r="L64">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N64">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2457,13 +2451,13 @@
         <v>75</v>
       </c>
       <c r="K65">
-        <v>0.2132450331125828</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="L65">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="M65">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2475,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>594</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2483,13 +2477,13 @@
         <v>76</v>
       </c>
       <c r="K66">
-        <v>0.1965811965811966</v>
+        <v>0.1841432225063939</v>
       </c>
       <c r="L66">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="M66">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2501,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>94</v>
+        <v>638</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2509,25 +2503,25 @@
         <v>77</v>
       </c>
       <c r="K67">
-        <v>0.1933418693982074</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="L67">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="M67">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="N67">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>630</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2535,13 +2529,13 @@
         <v>78</v>
       </c>
       <c r="K68">
-        <v>0.1879194630872483</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L68">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M68">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2553,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2561,25 +2555,25 @@
         <v>79</v>
       </c>
       <c r="K69">
-        <v>0.1783783783783784</v>
+        <v>0.1544715447154472</v>
       </c>
       <c r="L69">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="M69">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="N69">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O69">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2587,13 +2581,13 @@
         <v>80</v>
       </c>
       <c r="K70">
-        <v>0.1769230769230769</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="L70">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M70">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2605,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2613,13 +2607,13 @@
         <v>81</v>
       </c>
       <c r="K71">
-        <v>0.1585365853658537</v>
+        <v>0.1484184914841849</v>
       </c>
       <c r="L71">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="M71">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2631,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>138</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2639,13 +2633,13 @@
         <v>82</v>
       </c>
       <c r="K72">
-        <v>0.1581920903954802</v>
+        <v>0.1476014760147601</v>
       </c>
       <c r="L72">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M72">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2657,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>149</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2665,25 +2659,25 @@
         <v>83</v>
       </c>
       <c r="K73">
-        <v>0.1518518518518518</v>
+        <v>0.1435643564356436</v>
       </c>
       <c r="L73">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M73">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>229</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2691,13 +2685,13 @@
         <v>84</v>
       </c>
       <c r="K74">
-        <v>0.1484184914841849</v>
+        <v>0.1409090909090909</v>
       </c>
       <c r="L74">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M74">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2709,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>350</v>
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2717,13 +2711,13 @@
         <v>85</v>
       </c>
       <c r="K75">
-        <v>0.1474358974358974</v>
+        <v>0.140893470790378</v>
       </c>
       <c r="L75">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M75">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2735,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>133</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2743,13 +2737,13 @@
         <v>86</v>
       </c>
       <c r="K76">
-        <v>0.1454545454545454</v>
+        <v>0.138655462184874</v>
       </c>
       <c r="L76">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M76">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2761,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>141</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2769,13 +2763,13 @@
         <v>87</v>
       </c>
       <c r="K77">
-        <v>0.1428571428571428</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="L77">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M77">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2787,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2795,25 +2789,25 @@
         <v>88</v>
       </c>
       <c r="K78">
-        <v>0.134453781512605</v>
+        <v>0.1267942583732057</v>
       </c>
       <c r="L78">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M78">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>206</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2821,13 +2815,13 @@
         <v>89</v>
       </c>
       <c r="K79">
-        <v>0.127147766323024</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="L79">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="M79">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2839,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>254</v>
+        <v>402</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2847,13 +2841,13 @@
         <v>90</v>
       </c>
       <c r="K80">
-        <v>0.1254612546125461</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="L80">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M80">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2865,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2873,13 +2867,13 @@
         <v>91</v>
       </c>
       <c r="K81">
-        <v>0.1090909090909091</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L81">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M81">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -2891,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>392</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -2899,13 +2893,13 @@
         <v>92</v>
       </c>
       <c r="K82">
-        <v>0.1073985680190931</v>
+        <v>0.08469945355191257</v>
       </c>
       <c r="L82">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M82">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -2917,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>374</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -2925,25 +2919,25 @@
         <v>93</v>
       </c>
       <c r="K83">
-        <v>0.09899569583931134</v>
+        <v>0.07879656160458452</v>
       </c>
       <c r="L83">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="M83">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N83">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>628</v>
+        <v>643</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -2951,25 +2945,25 @@
         <v>94</v>
       </c>
       <c r="K84">
-        <v>0.09868421052631579</v>
+        <v>0.07670720299345182</v>
       </c>
       <c r="L84">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="M84">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>411</v>
+        <v>987</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -2977,25 +2971,25 @@
         <v>95</v>
       </c>
       <c r="K85">
-        <v>0.09274193548387097</v>
+        <v>0.07592592592592592</v>
       </c>
       <c r="L85">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M85">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>225</v>
+        <v>499</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3003,25 +2997,25 @@
         <v>96</v>
       </c>
       <c r="K86">
-        <v>0.07633587786259542</v>
+        <v>0.06852791878172589</v>
       </c>
       <c r="L86">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M86">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N86">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3029,25 +3023,25 @@
         <v>97</v>
       </c>
       <c r="K87">
-        <v>0.07376283846872082</v>
+        <v>0.06575342465753424</v>
       </c>
       <c r="L87">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="M87">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="N87">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>992</v>
+        <v>341</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3055,25 +3049,25 @@
         <v>98</v>
       </c>
       <c r="K88">
-        <v>0.06088560885608856</v>
+        <v>0.05569007263922518</v>
       </c>
       <c r="L88">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M88">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>509</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3081,77 +3075,25 @@
         <v>99</v>
       </c>
       <c r="K89">
-        <v>0.06010928961748634</v>
+        <v>0.04242424242424243</v>
       </c>
       <c r="L89">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="M89">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K90">
-        <v>0.04990403071017274</v>
-      </c>
-      <c r="L90">
-        <v>26</v>
-      </c>
-      <c r="M90">
-        <v>27</v>
-      </c>
-      <c r="N90">
-        <v>0.96</v>
-      </c>
-      <c r="O90">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P90" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K91">
-        <v>0.04852686308492201</v>
-      </c>
-      <c r="L91">
-        <v>56</v>
-      </c>
-      <c r="M91">
-        <v>59</v>
-      </c>
-      <c r="N91">
-        <v>0.95</v>
-      </c>
-      <c r="O91">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>1098</v>
+        <v>1106</v>
       </c>
     </row>
   </sheetData>
